--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522103EC-45E0-4ACB-9382-F31435E6015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41036F57-9D5C-40ED-AFA3-13C82857BA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="349">
   <si>
     <t>id</t>
   </si>
@@ -1287,6 +1287,20 @@
   </si>
   <si>
     <t>눈사람 이벤트에서 획득 가능! (이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume138</t>
+  </si>
+  <si>
+    <t>costume139</t>
+  </si>
+  <si>
+    <t>만독귀의 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사령신군 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1671,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4887,6 +4901,52 @@
         <v>137</v>
       </c>
     </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="1">
+        <v>8</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="1">
+        <v>8</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G141">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41036F57-9D5C-40ED-AFA3-13C82857BA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD8E767-30A1-479F-ADDC-CC9DBF3065A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="360">
   <si>
     <t>id</t>
   </si>
@@ -1301,6 +1301,45 @@
   </si>
   <si>
     <t>사령신군 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume140</t>
+  </si>
+  <si>
+    <t>costume141</t>
+  </si>
+  <si>
+    <t>costume142</t>
+  </si>
+  <si>
+    <t>costume143</t>
+  </si>
+  <si>
+    <t>costume144</t>
+  </si>
+  <si>
+    <t>혈마신군 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동악신로 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음명진군 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2살 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주년 이벤트에서 획득 가능! (이벤트 한정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1685,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4947,6 +4986,121 @@
         <v>139</v>
       </c>
     </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="1">
+        <v>8</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="1">
+        <v>8</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="1">
+        <v>8</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="1">
+        <v>8</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" s="1">
+        <v>8</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G146">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD8E767-30A1-479F-ADDC-CC9DBF3065A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1853D9D-9931-4455-B074-F9BF592BA03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="372">
   <si>
     <t>id</t>
   </si>
@@ -1340,6 +1340,49 @@
   </si>
   <si>
     <t>2주년 이벤트에서 획득 가능! (이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume145</t>
+  </si>
+  <si>
+    <t>costume146</t>
+  </si>
+  <si>
+    <t>costume147</t>
+  </si>
+  <si>
+    <t>costume148</t>
+  </si>
+  <si>
+    <t>costume149</t>
+  </si>
+  <si>
+    <t>투명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십만대산 추천보상에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수인전에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천귀사신 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마영독군 호연 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묘왕 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견왕 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1724,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5101,6 +5144,121 @@
         <v>144</v>
       </c>
     </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="1">
+        <v>8</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" s="1">
+        <v>8</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="1">
+        <v>8</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="1">
+        <v>8</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="1">
+        <v>8</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G151">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1853D9D-9931-4455-B074-F9BF592BA03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1E9C2A-5A6E-4E57-8C4C-4D671854FCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="383">
   <si>
     <t>id</t>
   </si>
@@ -1383,6 +1383,45 @@
   </si>
   <si>
     <t>견왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume150</t>
+  </si>
+  <si>
+    <t>costume151</t>
+  </si>
+  <si>
+    <t>costume152</t>
+  </si>
+  <si>
+    <t>costume153</t>
+  </si>
+  <si>
+    <t>costume154</t>
+  </si>
+  <si>
+    <t>독왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호왕 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송편 빚기 이벤트에서 획득 가능! (이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보름달 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말괄량이 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1767,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5259,6 +5298,121 @@
         <v>149</v>
       </c>
     </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="1">
+        <v>8</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="1">
+        <v>8</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="1">
+        <v>8</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="1">
+        <v>8</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="1">
+        <v>8</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G156">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1E9C2A-5A6E-4E57-8C4C-4D671854FCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9774787A-427E-4A74-BA24-5246639D8335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="38430" windowHeight="10500" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -1413,15 +1413,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>송편 빚기 이벤트에서 획득 가능! (이벤트 한정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보름달 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>말괄량이 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보름달 이벤트 패스 구매시 획득! (이벤트 한정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1809,7 +1809,7 @@
   <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5375,7 +5375,7 @@
         <v>375</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>5</v>
@@ -5398,7 +5398,7 @@
         <v>376</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>5</v>
@@ -5407,7 +5407,7 @@
         <v>8</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G156">
         <v>154</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9774787A-427E-4A74-BA24-5246639D8335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02648979-A317-4683-ADD2-70A97021A747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="38430" windowHeight="10500" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="389">
   <si>
     <t>id</t>
   </si>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출시 100일 이벤트에서 획득 가능!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아가씨 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1422,6 +1418,31 @@
   </si>
   <si>
     <t>보름달 이벤트 패스 구매시 획득! (이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume155</t>
+  </si>
+  <si>
+    <t>costume156</t>
+  </si>
+  <si>
+    <t>costume157</t>
+  </si>
+  <si>
+    <t>뇌제 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑랑왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백수뇌군 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 출석 이벤트에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1806,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2132,7 +2153,7 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -2141,7 +2162,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>388</v>
       </c>
       <c r="G14">
         <v>12</v>
@@ -2152,10 +2173,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -2164,7 +2185,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15">
         <v>13</v>
@@ -2175,10 +2196,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -2187,7 +2208,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16">
         <v>14</v>
@@ -2198,11 +2219,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2210,7 +2231,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -2221,10 +2242,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
@@ -2233,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18">
         <v>16</v>
@@ -2244,10 +2265,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>5</v>
@@ -2256,7 +2277,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -2267,10 +2288,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
@@ -2279,7 +2300,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20">
         <v>18</v>
@@ -2290,10 +2311,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
@@ -2302,7 +2323,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -2313,10 +2334,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
@@ -2325,7 +2346,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -2336,10 +2357,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
@@ -2348,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23">
         <v>21</v>
@@ -2359,10 +2380,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
@@ -2371,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24">
         <v>22</v>
@@ -2382,10 +2403,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
@@ -2394,7 +2415,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -2405,10 +2426,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
@@ -2417,7 +2438,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26">
         <v>24</v>
@@ -2428,10 +2449,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
@@ -2440,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -2451,10 +2472,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
@@ -2463,7 +2484,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28">
         <v>26</v>
@@ -2474,10 +2495,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -2486,7 +2507,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29">
         <v>27</v>
@@ -2497,10 +2518,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
@@ -2509,7 +2530,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G30">
         <v>28</v>
@@ -2520,19 +2541,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31">
         <v>29</v>
@@ -2543,10 +2564,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
@@ -2555,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32">
         <v>30</v>
@@ -2566,19 +2587,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="1">
         <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33">
         <v>31</v>
@@ -2589,10 +2610,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
@@ -2601,7 +2622,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G34">
         <v>32</v>
@@ -2612,19 +2633,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" s="1">
         <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G35">
         <v>33</v>
@@ -2635,19 +2656,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" s="1">
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G36">
         <v>34</v>
@@ -2658,19 +2679,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" s="1">
         <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G37">
         <v>35</v>
@@ -2681,19 +2702,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" s="1">
         <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G38">
         <v>36</v>
@@ -2704,10 +2725,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>5</v>
@@ -2716,7 +2737,7 @@
         <v>6</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G39">
         <v>37</v>
@@ -2727,10 +2748,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>
@@ -2739,7 +2760,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G40">
         <v>38</v>
@@ -2750,10 +2771,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
@@ -2762,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G41">
         <v>39</v>
@@ -2773,10 +2794,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>5</v>
@@ -2785,7 +2806,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G42">
         <v>40</v>
@@ -2796,10 +2817,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>5</v>
@@ -2808,7 +2829,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G43">
         <v>41</v>
@@ -2819,10 +2840,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>5</v>
@@ -2831,7 +2852,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G44">
         <v>42</v>
@@ -2842,10 +2863,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>5</v>
@@ -2854,7 +2875,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G45">
         <v>43</v>
@@ -2865,10 +2886,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>5</v>
@@ -2877,7 +2898,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G46">
         <v>44</v>
@@ -2888,10 +2909,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>5</v>
@@ -2900,7 +2921,7 @@
         <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G47">
         <v>45</v>
@@ -2911,10 +2932,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>5</v>
@@ -2923,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G48">
         <v>46</v>
@@ -2934,19 +2955,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="1">
-        <v>8</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G49">
         <v>47</v>
@@ -2957,19 +2978,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="1">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="1">
-        <v>8</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="G50">
         <v>48</v>
@@ -2980,10 +3001,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
@@ -2992,7 +3013,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G51">
         <v>49</v>
@@ -3003,19 +3024,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" s="1">
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G52">
         <v>50</v>
@@ -3026,10 +3047,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>5</v>
@@ -3038,7 +3059,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G53">
         <v>51</v>
@@ -3049,19 +3070,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" s="1">
         <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G54">
         <v>52</v>
@@ -3072,19 +3093,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1">
+        <v>8</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="1">
-        <v>8</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="G55">
         <v>53</v>
@@ -3095,10 +3116,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>5</v>
@@ -3118,10 +3139,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
@@ -3141,10 +3162,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>5</v>
@@ -3153,7 +3174,7 @@
         <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G58">
         <v>56</v>
@@ -3164,10 +3185,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>5</v>
@@ -3176,7 +3197,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G59">
         <v>57</v>
@@ -3187,19 +3208,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1">
+        <v>8</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1">
-        <v>8</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="G60">
         <v>58</v>
@@ -3210,10 +3231,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>5</v>
@@ -3222,7 +3243,7 @@
         <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G61">
         <v>59</v>
@@ -3233,10 +3254,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>5</v>
@@ -3245,7 +3266,7 @@
         <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G62">
         <v>60</v>
@@ -3256,10 +3277,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>5</v>
@@ -3268,7 +3289,7 @@
         <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G63">
         <v>63</v>
@@ -3279,10 +3300,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>5</v>
@@ -3302,10 +3323,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>5</v>
@@ -3325,10 +3346,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>5</v>
@@ -3337,7 +3358,7 @@
         <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G66">
         <v>61</v>
@@ -3348,10 +3369,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>5</v>
@@ -3360,7 +3381,7 @@
         <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G67">
         <v>62</v>
@@ -3371,10 +3392,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>5</v>
@@ -3383,7 +3404,7 @@
         <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G68">
         <v>66</v>
@@ -3394,10 +3415,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>5</v>
@@ -3406,7 +3427,7 @@
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G69">
         <v>67</v>
@@ -3417,19 +3438,19 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1">
+        <v>8</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="1">
-        <v>8</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="G70">
         <v>68</v>
@@ -3440,10 +3461,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>5</v>
@@ -3452,7 +3473,7 @@
         <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G71">
         <v>69</v>
@@ -3463,10 +3484,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>5</v>
@@ -3475,7 +3496,7 @@
         <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G72">
         <v>70</v>
@@ -3486,10 +3507,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>5</v>
@@ -3498,7 +3519,7 @@
         <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G73">
         <v>71</v>
@@ -3509,10 +3530,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>5</v>
@@ -3521,7 +3542,7 @@
         <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G74">
         <v>72</v>
@@ -3532,10 +3553,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>5</v>
@@ -3544,7 +3565,7 @@
         <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G75">
         <v>73</v>
@@ -3555,10 +3576,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>5</v>
@@ -3567,7 +3588,7 @@
         <v>8</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G76">
         <v>74</v>
@@ -3578,11 +3599,11 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D77" s="1" t="s">
         <v>5</v>
       </c>
@@ -3590,7 +3611,7 @@
         <v>8</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G77">
         <v>75</v>
@@ -3601,10 +3622,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>5</v>
@@ -3613,7 +3634,7 @@
         <v>8</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G78">
         <v>76</v>
@@ -3624,10 +3645,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>5</v>
@@ -3636,7 +3657,7 @@
         <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G79">
         <v>77</v>
@@ -3647,10 +3668,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>5</v>
@@ -3659,7 +3680,7 @@
         <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G80">
         <v>78</v>
@@ -3670,10 +3691,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>5</v>
@@ -3682,7 +3703,7 @@
         <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G81">
         <v>79</v>
@@ -3693,19 +3714,19 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="1">
+        <v>8</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="1">
-        <v>8</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="G82">
         <v>80</v>
@@ -3716,19 +3737,19 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1">
+        <v>8</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="1">
-        <v>8</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G83">
         <v>81</v>
@@ -3739,11 +3760,11 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="D84" s="1" t="s">
         <v>5</v>
       </c>
@@ -3751,7 +3772,7 @@
         <v>8</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G84">
         <v>82</v>
@@ -3762,11 +3783,11 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="D85" s="1" t="s">
         <v>5</v>
       </c>
@@ -3774,7 +3795,7 @@
         <v>8</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G85">
         <v>83</v>
@@ -3785,10 +3806,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>5</v>
@@ -3797,7 +3818,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G86">
         <v>84</v>
@@ -3808,10 +3829,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>5</v>
@@ -3820,7 +3841,7 @@
         <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G87">
         <v>85</v>
@@ -3831,10 +3852,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>5</v>
@@ -3843,7 +3864,7 @@
         <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G88">
         <v>86</v>
@@ -3854,10 +3875,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>5</v>
@@ -3866,7 +3887,7 @@
         <v>8</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G89">
         <v>87</v>
@@ -3877,10 +3898,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>5</v>
@@ -3889,7 +3910,7 @@
         <v>8</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G90">
         <v>88</v>
@@ -3900,10 +3921,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>5</v>
@@ -3912,7 +3933,7 @@
         <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G91">
         <v>89</v>
@@ -3923,19 +3944,19 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="1">
+        <v>8</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="1">
-        <v>8</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G92">
         <v>90</v>
@@ -3946,10 +3967,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>5</v>
@@ -3958,7 +3979,7 @@
         <v>8</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G93">
         <v>91</v>
@@ -3969,10 +3990,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>5</v>
@@ -3981,7 +4002,7 @@
         <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G94">
         <v>92</v>
@@ -3992,10 +4013,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>5</v>
@@ -4004,7 +4025,7 @@
         <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G95">
         <v>93</v>
@@ -4015,10 +4036,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>5</v>
@@ -4027,7 +4048,7 @@
         <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G96">
         <v>94</v>
@@ -4038,10 +4059,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>5</v>
@@ -4050,7 +4071,7 @@
         <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G97">
         <v>95</v>
@@ -4061,10 +4082,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>5</v>
@@ -4073,7 +4094,7 @@
         <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G98">
         <v>96</v>
@@ -4084,10 +4105,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>5</v>
@@ -4096,7 +4117,7 @@
         <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G99">
         <v>97</v>
@@ -4107,10 +4128,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>5</v>
@@ -4119,7 +4140,7 @@
         <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G100">
         <v>98</v>
@@ -4130,10 +4151,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>5</v>
@@ -4142,7 +4163,7 @@
         <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G101">
         <v>99</v>
@@ -4153,11 +4174,11 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="D102" s="1" t="s">
         <v>5</v>
       </c>
@@ -4165,7 +4186,7 @@
         <v>8</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G102">
         <v>100</v>
@@ -4176,10 +4197,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>5</v>
@@ -4188,7 +4209,7 @@
         <v>8</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G103">
         <v>101</v>
@@ -4199,10 +4220,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>5</v>
@@ -4211,7 +4232,7 @@
         <v>8</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G104">
         <v>102</v>
@@ -4222,10 +4243,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
@@ -4234,7 +4255,7 @@
         <v>8</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G105">
         <v>103</v>
@@ -4245,10 +4266,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>5</v>
@@ -4257,7 +4278,7 @@
         <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G106">
         <v>104</v>
@@ -4268,10 +4289,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>5</v>
@@ -4280,7 +4301,7 @@
         <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G107">
         <v>106</v>
@@ -4291,10 +4312,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>5</v>
@@ -4303,7 +4324,7 @@
         <v>8</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G108">
         <v>107</v>
@@ -4314,10 +4335,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>5</v>
@@ -4326,7 +4347,7 @@
         <v>8</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G109">
         <v>108</v>
@@ -4337,10 +4358,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>5</v>
@@ -4349,7 +4370,7 @@
         <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G110">
         <v>109</v>
@@ -4360,10 +4381,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>5</v>
@@ -4372,7 +4393,7 @@
         <v>8</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G111">
         <v>110</v>
@@ -4383,19 +4404,19 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1">
+        <v>8</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112" s="1">
-        <v>8</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="G112">
         <v>105</v>
@@ -4406,10 +4427,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>5</v>
@@ -4418,7 +4439,7 @@
         <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G113">
         <v>111</v>
@@ -4429,10 +4450,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>5</v>
@@ -4441,7 +4462,7 @@
         <v>8</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G114">
         <v>112</v>
@@ -4452,10 +4473,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>5</v>
@@ -4464,7 +4485,7 @@
         <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G115">
         <v>113</v>
@@ -4475,10 +4496,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>5</v>
@@ -4487,7 +4508,7 @@
         <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G116">
         <v>114</v>
@@ -4498,10 +4519,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
@@ -4510,7 +4531,7 @@
         <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G117">
         <v>115</v>
@@ -4521,10 +4542,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>5</v>
@@ -4533,7 +4554,7 @@
         <v>8</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G118">
         <v>116</v>
@@ -4544,10 +4565,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>5</v>
@@ -4556,7 +4577,7 @@
         <v>8</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G119">
         <v>117</v>
@@ -4567,19 +4588,19 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1">
+        <v>8</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" s="1">
-        <v>8</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="G120">
         <v>118</v>
@@ -4590,11 +4611,11 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="D121" s="1" t="s">
         <v>5</v>
       </c>
@@ -4602,7 +4623,7 @@
         <v>8</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G121">
         <v>119</v>
@@ -4613,10 +4634,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>5</v>
@@ -4625,7 +4646,7 @@
         <v>8</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G122">
         <v>120</v>
@@ -4636,10 +4657,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>5</v>
@@ -4648,7 +4669,7 @@
         <v>8</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G123">
         <v>121</v>
@@ -4659,10 +4680,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>5</v>
@@ -4671,7 +4692,7 @@
         <v>8</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G124">
         <v>122</v>
@@ -4682,10 +4703,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>5</v>
@@ -4694,7 +4715,7 @@
         <v>8</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G125">
         <v>123</v>
@@ -4705,10 +4726,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>5</v>
@@ -4717,7 +4738,7 @@
         <v>8</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G126">
         <v>124</v>
@@ -4728,10 +4749,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>5</v>
@@ -4740,7 +4761,7 @@
         <v>8</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G127">
         <v>125</v>
@@ -4751,10 +4772,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>5</v>
@@ -4763,7 +4784,7 @@
         <v>8</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G128">
         <v>126</v>
@@ -4774,10 +4795,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>5</v>
@@ -4786,7 +4807,7 @@
         <v>8</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G129">
         <v>127</v>
@@ -4797,10 +4818,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>5</v>
@@ -4809,7 +4830,7 @@
         <v>8</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G130">
         <v>128</v>
@@ -4820,10 +4841,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>5</v>
@@ -4832,7 +4853,7 @@
         <v>8</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G131">
         <v>129</v>
@@ -4843,10 +4864,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>5</v>
@@ -4855,7 +4876,7 @@
         <v>8</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G132">
         <v>130</v>
@@ -4866,10 +4887,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>5</v>
@@ -4878,7 +4899,7 @@
         <v>8</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G133">
         <v>131</v>
@@ -4889,10 +4910,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>5</v>
@@ -4901,7 +4922,7 @@
         <v>8</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G134">
         <v>132</v>
@@ -4912,10 +4933,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>5</v>
@@ -4924,7 +4945,7 @@
         <v>8</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G135">
         <v>133</v>
@@ -4935,10 +4956,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>5</v>
@@ -4947,7 +4968,7 @@
         <v>8</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G136">
         <v>134</v>
@@ -4958,10 +4979,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>5</v>
@@ -4970,7 +4991,7 @@
         <v>8</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G137">
         <v>135</v>
@@ -4981,10 +5002,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>5</v>
@@ -4993,7 +5014,7 @@
         <v>8</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G138">
         <v>136</v>
@@ -5004,10 +5025,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>5</v>
@@ -5016,7 +5037,7 @@
         <v>8</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G139">
         <v>137</v>
@@ -5027,10 +5048,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>5</v>
@@ -5039,7 +5060,7 @@
         <v>8</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G140">
         <v>138</v>
@@ -5050,10 +5071,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>5</v>
@@ -5062,7 +5083,7 @@
         <v>8</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G141">
         <v>139</v>
@@ -5073,10 +5094,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>5</v>
@@ -5085,7 +5106,7 @@
         <v>8</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G142">
         <v>140</v>
@@ -5096,10 +5117,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>5</v>
@@ -5108,7 +5129,7 @@
         <v>8</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G143">
         <v>141</v>
@@ -5119,10 +5140,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>5</v>
@@ -5131,7 +5152,7 @@
         <v>8</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G144">
         <v>142</v>
@@ -5142,10 +5163,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>5</v>
@@ -5154,7 +5175,7 @@
         <v>8</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G145">
         <v>143</v>
@@ -5165,10 +5186,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>5</v>
@@ -5177,7 +5198,7 @@
         <v>8</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G146">
         <v>144</v>
@@ -5188,10 +5209,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>5</v>
@@ -5200,7 +5221,7 @@
         <v>8</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G147">
         <v>145</v>
@@ -5211,10 +5232,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>5</v>
@@ -5223,7 +5244,7 @@
         <v>8</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G148">
         <v>146</v>
@@ -5234,10 +5255,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>5</v>
@@ -5246,7 +5267,7 @@
         <v>8</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G149">
         <v>147</v>
@@ -5257,10 +5278,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>5</v>
@@ -5269,7 +5290,7 @@
         <v>8</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G150">
         <v>148</v>
@@ -5280,19 +5301,19 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="1">
+        <v>8</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" s="1">
-        <v>8</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="G151">
         <v>149</v>
@@ -5303,10 +5324,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>5</v>
@@ -5315,7 +5336,7 @@
         <v>8</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G152">
         <v>150</v>
@@ -5326,10 +5347,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>5</v>
@@ -5338,7 +5359,7 @@
         <v>8</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G153">
         <v>151</v>
@@ -5349,10 +5370,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>5</v>
@@ -5361,7 +5382,7 @@
         <v>8</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G154">
         <v>152</v>
@@ -5372,10 +5393,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>5</v>
@@ -5384,7 +5405,7 @@
         <v>8</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G155">
         <v>153</v>
@@ -5395,10 +5416,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>5</v>
@@ -5407,10 +5428,83 @@
         <v>8</v>
       </c>
       <c r="F156" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G156">
+        <f t="shared" ref="G156:G158" si="0">A156</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G156">
-        <v>154</v>
+      <c r="C157" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157" s="1">
+        <v>8</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="1">
+        <v>8</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="1">
+        <v>8</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G159">
+        <f>A159</f>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02648979-A317-4683-ADD2-70A97021A747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505D974D-BD59-4484-932B-8C0247ABB49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="394">
   <si>
     <t>id</t>
   </si>
@@ -1443,6 +1443,26 @@
   </si>
   <si>
     <t>신규 출석 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍룡왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑묘살수 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다람쥐 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요사키 마블에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠옷 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1827,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5431,7 +5451,7 @@
         <v>381</v>
       </c>
       <c r="G156">
-        <f t="shared" ref="G156:G158" si="0">A156</f>
+        <f t="shared" ref="G156:G162" si="0">A156</f>
         <v>154</v>
       </c>
     </row>
@@ -5503,8 +5523,112 @@
         <v>318</v>
       </c>
       <c r="G159">
-        <f>A159</f>
+        <f t="shared" si="0"/>
         <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <f>ROW()-2</f>
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="str">
+        <f>"costume"&amp;A160</f>
+        <v>costume158</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="1">
+        <v>8</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <f t="shared" ref="A161:A163" si="1">ROW()-2</f>
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="str">
+        <f t="shared" ref="B161:B162" si="2">"costume"&amp;A161</f>
+        <v>costume159</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="1">
+        <v>8</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="B162" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>costume160</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="1">
+        <v>8</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="B163" s="1" t="str">
+        <f t="shared" ref="B163" si="3">"costume"&amp;A163</f>
+        <v>costume161</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" s="1">
+        <v>8</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G163">
+        <f t="shared" ref="G163" si="4">A163</f>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505D974D-BD59-4484-932B-8C0247ABB49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955317C8-2994-4051-9F94-CE6BCBC5CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="398">
   <si>
     <t>id</t>
   </si>
@@ -1463,6 +1463,22 @@
   </si>
   <si>
     <t>잠옷 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인계에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용 일천왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용 이천왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용 삼천왕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1847,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F163" sqref="F163"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5555,11 +5571,11 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A163" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A166" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
-        <f t="shared" ref="B161:B162" si="2">"costume"&amp;A161</f>
+        <f t="shared" ref="B161:B166" si="2">"costume"&amp;A161</f>
         <v>costume159</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -5611,7 +5627,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="str">
-        <f t="shared" ref="B163" si="3">"costume"&amp;A163</f>
+        <f t="shared" ref="B163:B165" si="3">"costume"&amp;A163</f>
         <v>costume161</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -5627,8 +5643,86 @@
         <v>392</v>
       </c>
       <c r="G163">
-        <f t="shared" ref="G163" si="4">A163</f>
+        <f t="shared" ref="G163:G166" si="4">A163</f>
         <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="B164" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>costume162</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" s="1">
+        <v>8</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="B165" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>costume163</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="1">
+        <v>8</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="B166" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>costume164</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" s="1">
+        <v>8</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="4"/>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955317C8-2994-4051-9F94-CE6BCBC5CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85355CED-2DE8-40E1-822D-974DEAAB7D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-3870" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="401">
   <si>
     <t>id</t>
   </si>
@@ -1470,15 +1470,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>용 일천왕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용 이천왕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용 삼천왕</t>
+    <t>일천왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이천왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑룡 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백룡 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무당 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1863,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5571,7 +5583,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A166" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A169" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -5723,6 +5735,84 @@
       <c r="G166">
         <f t="shared" si="4"/>
         <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="B167" s="1" t="str">
+        <f t="shared" ref="B167:B169" si="5">"costume"&amp;A167</f>
+        <v>costume165</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167" s="1">
+        <v>8</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G167">
+        <f t="shared" ref="G167:G169" si="6">A167</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="B168" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>costume166</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="1">
+        <v>8</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="6"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="B169" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>costume167</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" s="1">
+        <v>8</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="6"/>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85355CED-2DE8-40E1-822D-974DEAAB7D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0925349C-51AB-42AC-88A8-C301047923BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-3870" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5730" yWindow="4605" windowWidth="28560" windowHeight="14310" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="406">
   <si>
     <t>id</t>
   </si>
@@ -1491,6 +1491,26 @@
   </si>
   <si>
     <t>무당 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 명예상점에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용술사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용술사 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대제자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신룡 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1875,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5583,7 +5603,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A169" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A173" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -5813,6 +5833,110 @@
       <c r="G169">
         <f t="shared" si="6"/>
         <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="B170" s="1" t="str">
+        <f t="shared" ref="B170:B173" si="7">"costume"&amp;A170</f>
+        <v>costume168</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" s="1">
+        <v>8</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G170">
+        <f t="shared" ref="G170:G173" si="8">A170</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="B171" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>costume169</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" s="1">
+        <v>8</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="8"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="B172" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>costume170</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="1">
+        <v>8</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="8"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="B173" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>costume171</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="1">
+        <v>8</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="8"/>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0925349C-51AB-42AC-88A8-C301047923BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB3390D-BFD1-43B5-860F-5FEDDEAEFF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="4605" windowWidth="28560" windowHeight="14310" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="411">
   <si>
     <t>id</t>
   </si>
@@ -1511,6 +1511,26 @@
   </si>
   <si>
     <t>신룡 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요석 핫타임 패스 구매 시 획득! (이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑룡무제 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백룡무제 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃여우 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1895,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1914,7 +1934,7 @@
     <col min="12" max="12" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1936,8 +1956,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1959,8 +1982,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1982,8 +2008,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2005,8 +2034,11 @@
       <c r="G4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2028,8 +2060,11 @@
       <c r="G5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2051,8 +2086,11 @@
       <c r="G6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2074,8 +2112,11 @@
       <c r="G7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2097,8 +2138,11 @@
       <c r="G8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2120,8 +2164,11 @@
       <c r="G9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2143,8 +2190,11 @@
       <c r="G10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2166,8 +2216,11 @@
       <c r="G11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2189,8 +2242,11 @@
       <c r="G12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2212,8 +2268,11 @@
       <c r="G13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2235,8 +2294,11 @@
       <c r="G14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2258,8 +2320,11 @@
       <c r="G15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2281,8 +2346,11 @@
       <c r="G16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2304,8 +2372,11 @@
       <c r="G17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2327,8 +2398,11 @@
       <c r="G18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2350,8 +2424,11 @@
       <c r="G19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2373,8 +2450,11 @@
       <c r="G20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2396,8 +2476,11 @@
       <c r="G21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2419,8 +2502,11 @@
       <c r="G22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2442,8 +2528,11 @@
       <c r="G23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2465,8 +2554,11 @@
       <c r="G24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2488,8 +2580,11 @@
       <c r="G25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2511,8 +2606,11 @@
       <c r="G26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2534,8 +2632,11 @@
       <c r="G27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2557,8 +2658,11 @@
       <c r="G28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2580,8 +2684,11 @@
       <c r="G29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2603,8 +2710,11 @@
       <c r="G30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2626,8 +2736,11 @@
       <c r="G31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2649,8 +2762,11 @@
       <c r="G32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2672,8 +2788,11 @@
       <c r="G33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2695,8 +2814,11 @@
       <c r="G34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2718,8 +2840,11 @@
       <c r="G35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2741,8 +2866,11 @@
       <c r="G36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2764,8 +2892,11 @@
       <c r="G37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2787,8 +2918,11 @@
       <c r="G38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2810,8 +2944,11 @@
       <c r="G39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2833,8 +2970,11 @@
       <c r="G40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2856,8 +2996,11 @@
       <c r="G41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2879,8 +3022,11 @@
       <c r="G42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2902,8 +3048,11 @@
       <c r="G43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="G44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2948,8 +3100,11 @@
       <c r="G45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2971,8 +3126,11 @@
       <c r="G46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2994,8 +3152,11 @@
       <c r="G47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3017,8 +3178,11 @@
       <c r="G48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3040,8 +3204,11 @@
       <c r="G49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3063,8 +3230,11 @@
       <c r="G50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3086,8 +3256,11 @@
       <c r="G51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3109,8 +3282,11 @@
       <c r="G52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3132,8 +3308,11 @@
       <c r="G53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3155,8 +3334,11 @@
       <c r="G54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3178,8 +3360,11 @@
       <c r="G55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3201,8 +3386,11 @@
       <c r="G56">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3224,8 +3412,11 @@
       <c r="G57">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3247,8 +3438,11 @@
       <c r="G58">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3270,8 +3464,11 @@
       <c r="G59">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3293,8 +3490,11 @@
       <c r="G60">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3316,8 +3516,11 @@
       <c r="G61">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3339,8 +3542,11 @@
       <c r="G62">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3362,8 +3568,11 @@
       <c r="G63">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3385,8 +3594,11 @@
       <c r="G64">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3408,8 +3620,11 @@
       <c r="G65">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3431,8 +3646,11 @@
       <c r="G66">
         <v>61</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3454,8 +3672,11 @@
       <c r="G67">
         <v>62</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3477,8 +3698,11 @@
       <c r="G68">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3500,8 +3724,11 @@
       <c r="G69">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3523,8 +3750,11 @@
       <c r="G70">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3546,8 +3776,11 @@
       <c r="G71">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3569,8 +3802,11 @@
       <c r="G72">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3592,8 +3828,11 @@
       <c r="G73">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3615,8 +3854,11 @@
       <c r="G74">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3638,8 +3880,11 @@
       <c r="G75">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3661,8 +3906,11 @@
       <c r="G76">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3684,8 +3932,11 @@
       <c r="G77">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3707,8 +3958,11 @@
       <c r="G78">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3730,8 +3984,11 @@
       <c r="G79">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3753,8 +4010,11 @@
       <c r="G80">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3776,8 +4036,11 @@
       <c r="G81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3799,8 +4062,11 @@
       <c r="G82">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3822,8 +4088,11 @@
       <c r="G83">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3845,8 +4114,11 @@
       <c r="G84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3868,8 +4140,11 @@
       <c r="G85">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3891,8 +4166,11 @@
       <c r="G86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3914,8 +4192,11 @@
       <c r="G87">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3937,8 +4218,11 @@
       <c r="G88">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3960,8 +4244,11 @@
       <c r="G89">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3983,8 +4270,11 @@
       <c r="G90">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4006,8 +4296,11 @@
       <c r="G91">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4029,8 +4322,11 @@
       <c r="G92">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4052,8 +4348,11 @@
       <c r="G93">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4075,8 +4374,11 @@
       <c r="G94">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4098,8 +4400,11 @@
       <c r="G95">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4121,8 +4426,11 @@
       <c r="G96">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4144,8 +4452,11 @@
       <c r="G97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4167,8 +4478,11 @@
       <c r="G98">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4190,8 +4504,11 @@
       <c r="G99">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4213,8 +4530,11 @@
       <c r="G100">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4236,8 +4556,11 @@
       <c r="G101">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4259,8 +4582,11 @@
       <c r="G102">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4282,8 +4608,11 @@
       <c r="G103">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4305,8 +4634,11 @@
       <c r="G104">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4328,8 +4660,11 @@
       <c r="G105">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4351,8 +4686,11 @@
       <c r="G106">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4374,8 +4712,11 @@
       <c r="G107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4397,8 +4738,11 @@
       <c r="G108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4420,8 +4764,11 @@
       <c r="G109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4443,8 +4790,11 @@
       <c r="G110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4466,8 +4816,11 @@
       <c r="G111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4489,8 +4842,11 @@
       <c r="G112">
         <v>105</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4512,8 +4868,11 @@
       <c r="G113">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4535,8 +4894,11 @@
       <c r="G114">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4558,8 +4920,11 @@
       <c r="G115">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4581,8 +4946,11 @@
       <c r="G116">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4604,8 +4972,11 @@
       <c r="G117">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4627,8 +4998,11 @@
       <c r="G118">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4650,8 +5024,11 @@
       <c r="G119">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4673,8 +5050,11 @@
       <c r="G120">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4696,8 +5076,11 @@
       <c r="G121">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4719,8 +5102,11 @@
       <c r="G122">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4742,8 +5128,11 @@
       <c r="G123">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4765,8 +5154,11 @@
       <c r="G124">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4788,8 +5180,11 @@
       <c r="G125">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4811,8 +5206,11 @@
       <c r="G126">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4834,8 +5232,11 @@
       <c r="G127">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4857,8 +5258,11 @@
       <c r="G128">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4880,8 +5284,11 @@
       <c r="G129">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4903,8 +5310,11 @@
       <c r="G130">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4926,8 +5336,11 @@
       <c r="G131">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4949,8 +5362,11 @@
       <c r="G132">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4972,8 +5388,11 @@
       <c r="G133">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4995,8 +5414,11 @@
       <c r="G134">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5018,8 +5440,11 @@
       <c r="G135">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5041,8 +5466,11 @@
       <c r="G136">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5064,8 +5492,11 @@
       <c r="G137">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5087,8 +5518,11 @@
       <c r="G138">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5110,8 +5544,11 @@
       <c r="G139">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5133,8 +5570,11 @@
       <c r="G140">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5156,8 +5596,11 @@
       <c r="G141">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5179,8 +5622,11 @@
       <c r="G142">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5202,8 +5648,11 @@
       <c r="G143">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5225,8 +5674,11 @@
       <c r="G144">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5248,8 +5700,11 @@
       <c r="G145">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5271,8 +5726,11 @@
       <c r="G146">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5294,8 +5752,11 @@
       <c r="G147">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5317,8 +5778,11 @@
       <c r="G148">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5340,8 +5804,11 @@
       <c r="G149">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5363,8 +5830,11 @@
       <c r="G150">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5386,8 +5856,11 @@
       <c r="G151">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5409,8 +5882,11 @@
       <c r="G152">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5432,8 +5908,11 @@
       <c r="G153">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5455,8 +5934,11 @@
       <c r="G154">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5478,8 +5960,11 @@
       <c r="G155">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5502,8 +5987,11 @@
         <f t="shared" ref="G156:G162" si="0">A156</f>
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5526,8 +6014,11 @@
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5550,8 +6041,11 @@
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5574,8 +6068,11 @@
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f>ROW()-2</f>
         <v>158</v>
@@ -5600,10 +6097,13 @@
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A173" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A176" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -5626,8 +6126,11 @@
         <f t="shared" si="0"/>
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" si="1"/>
         <v>160</v>
@@ -5652,8 +6155,11 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" si="1"/>
         <v>161</v>
@@ -5678,8 +6184,11 @@
         <f t="shared" ref="G163:G166" si="4">A163</f>
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" si="1"/>
         <v>162</v>
@@ -5704,8 +6213,11 @@
         <f t="shared" si="4"/>
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" si="1"/>
         <v>163</v>
@@ -5730,8 +6242,11 @@
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" si="1"/>
         <v>164</v>
@@ -5756,8 +6271,11 @@
         <f t="shared" si="4"/>
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <f t="shared" si="1"/>
         <v>165</v>
@@ -5782,8 +6300,11 @@
         <f t="shared" ref="G167:G169" si="6">A167</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <f t="shared" si="1"/>
         <v>166</v>
@@ -5808,8 +6329,11 @@
         <f t="shared" si="6"/>
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <f t="shared" si="1"/>
         <v>167</v>
@@ -5834,8 +6358,11 @@
         <f t="shared" si="6"/>
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <f t="shared" si="1"/>
         <v>168</v>
@@ -5860,8 +6387,11 @@
         <f t="shared" ref="G170:G173" si="8">A170</f>
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <f t="shared" si="1"/>
         <v>169</v>
@@ -5886,8 +6416,11 @@
         <f t="shared" si="8"/>
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <f t="shared" si="1"/>
         <v>170</v>
@@ -5912,8 +6445,11 @@
         <f t="shared" si="8"/>
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <f t="shared" si="1"/>
         <v>171</v>
@@ -5937,6 +6473,96 @@
       <c r="G173">
         <f t="shared" si="8"/>
         <v>171</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="B174" s="1" t="str">
+        <f t="shared" ref="B174:B176" si="9">"costume"&amp;A174</f>
+        <v>costume172</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" s="1">
+        <v>8</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G174">
+        <f t="shared" ref="G174:G176" si="10">A174</f>
+        <v>172</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <f t="shared" si="1"/>
+        <v>173</v>
+      </c>
+      <c r="B175" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>costume173</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" s="1">
+        <v>8</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="10"/>
+        <v>173</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="B176" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>costume174</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" s="1">
+        <v>8</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="10"/>
+        <v>174</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB3390D-BFD1-43B5-860F-5FEDDEAEFF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C69361-DFC8-4215-98EF-29CC9F5FA115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="416">
   <si>
     <t>id</t>
   </si>
@@ -1531,6 +1531,26 @@
   </si>
   <si>
     <t>꽃여우 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백여우 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무대회에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑룡신 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡신 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무왕 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1915,10 +1935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6103,7 +6123,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A176" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A180" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -6562,6 +6582,122 @@
         <v>174</v>
       </c>
       <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="B177" s="1" t="str">
+        <f t="shared" ref="B177:B180" si="11">"costume"&amp;A177</f>
+        <v>costume175</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="1">
+        <v>8</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G177">
+        <f t="shared" ref="G177:G180" si="12">A177</f>
+        <v>175</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="B178" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>costume176</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" s="1">
+        <v>8</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="12"/>
+        <v>176</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="B179" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>costume177</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="1">
+        <v>8</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="12"/>
+        <v>177</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+      <c r="B180" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>costume178</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="1">
+        <v>8</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="12"/>
+        <v>178</v>
+      </c>
+      <c r="H180">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C69361-DFC8-4215-98EF-29CC9F5FA115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E5636-1AAB-45F3-8F9B-BFD1603CA309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="422">
   <si>
     <t>id</t>
   </si>
@@ -1551,6 +1551,30 @@
   </si>
   <si>
     <t>비무왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑해태자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광해태자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 이벤트에서 획득 가능! (이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1935,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6123,7 +6147,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A180" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A184" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -6698,6 +6722,122 @@
         <v>178</v>
       </c>
       <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="B181" s="1" t="str">
+        <f t="shared" ref="B181:B183" si="13">"costume"&amp;A181</f>
+        <v>costume179</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" s="1">
+        <v>8</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G181">
+        <f t="shared" ref="G181:G183" si="14">A181</f>
+        <v>179</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="B182" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>costume180</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" s="1">
+        <v>8</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+      <c r="B183" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>costume181</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="1">
+        <v>8</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="14"/>
+        <v>181</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="B184" s="1" t="str">
+        <f t="shared" ref="B184" si="15">"costume"&amp;A184</f>
+        <v>costume182</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" s="1">
+        <v>8</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G184">
+        <f t="shared" ref="G184" si="16">A184</f>
+        <v>182</v>
+      </c>
+      <c r="H184">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E5636-1AAB-45F3-8F9B-BFD1603CA309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD6A3D8-AA1A-4356-B349-CD3608776FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2205" yWindow="555" windowWidth="27150" windowHeight="15180" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="426">
   <si>
     <t>id</t>
   </si>
@@ -1575,6 +1575,22 @@
   </si>
   <si>
     <t>크리스마스 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여울태자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가람태자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화룡 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2024/1월)에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1959,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+      <selection activeCell="F187" sqref="F187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6147,7 +6163,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A184" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A187" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -6818,7 +6834,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="1" t="str">
-        <f t="shared" ref="B184" si="15">"costume"&amp;A184</f>
+        <f t="shared" ref="B184:B185" si="15">"costume"&amp;A184</f>
         <v>costume182</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -6834,10 +6850,97 @@
         <v>419</v>
       </c>
       <c r="G184">
-        <f t="shared" ref="G184" si="16">A184</f>
+        <f t="shared" ref="G184:G185" si="16">A184</f>
         <v>182</v>
       </c>
       <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="B185" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>costume183</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" s="1">
+        <v>8</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="16"/>
+        <v>183</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="B186" s="1" t="str">
+        <f t="shared" ref="B186:B187" si="17">"costume"&amp;A186</f>
+        <v>costume184</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" s="1">
+        <v>8</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G186">
+        <f t="shared" ref="G186:G187" si="18">A186</f>
+        <v>184</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="B187" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>costume185</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="1">
+        <v>8</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="18"/>
+        <v>185</v>
+      </c>
+      <c r="H187">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD6A3D8-AA1A-4356-B349-CD3608776FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CC0192-FE6A-4E3E-9755-2BFA5B9C735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="555" windowWidth="27150" windowHeight="15180" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="433">
   <si>
     <t>id</t>
   </si>
@@ -1591,6 +1591,34 @@
   </si>
   <si>
     <t>월간 훈련(2024/1월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적안마수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십만대산 교환소에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적안마수에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무신 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서해장군 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동해장군 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1975,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F187" sqref="F187"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6163,7 +6191,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A187" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A192" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -6941,6 +6969,151 @@
         <v>185</v>
       </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="B188" s="1" t="str">
+        <f t="shared" ref="B188:B191" si="19">"costume"&amp;A188</f>
+        <v>costume186</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" s="1">
+        <v>8</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G188">
+        <f t="shared" ref="G188:G191" si="20">A188</f>
+        <v>186</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>costume187</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" s="1">
+        <v>8</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="20"/>
+        <v>187</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="B190" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>costume188</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" s="1">
+        <v>8</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="20"/>
+        <v>188</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="B191" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>costume189</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191" s="1">
+        <v>8</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="20"/>
+        <v>189</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="B192" s="1" t="str">
+        <f t="shared" ref="B192" si="21">"costume"&amp;A192</f>
+        <v>costume190</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192" s="1">
+        <v>8</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G192">
+        <f t="shared" ref="G192" si="22">A192</f>
+        <v>190</v>
+      </c>
+      <c r="H192">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PYJ\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CC0192-FE6A-4E3E-9755-2BFA5B9C735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6146EF-82A2-4CA6-B1F4-E516DB4844A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="439">
   <si>
     <t>id</t>
   </si>
@@ -1619,6 +1619,30 @@
   </si>
   <si>
     <t>동해장군 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2024/2월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도령 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아씨 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요사키 윷놀이에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음양사 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2003,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O170" sqref="O170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6191,7 +6215,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A192" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A196" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -7094,7 +7118,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="1" t="str">
-        <f t="shared" ref="B192" si="21">"costume"&amp;A192</f>
+        <f t="shared" ref="B192:B194" si="21">"costume"&amp;A192</f>
         <v>costume190</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -7110,10 +7134,126 @@
         <v>429</v>
       </c>
       <c r="G192">
-        <f t="shared" ref="G192" si="22">A192</f>
+        <f t="shared" ref="G192:G194" si="22">A192</f>
         <v>190</v>
       </c>
       <c r="H192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="B193" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>costume191</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E193" s="1">
+        <v>8</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="22"/>
+        <v>191</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="B194" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>costume192</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" s="1">
+        <v>8</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="22"/>
+        <v>192</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="B195" s="1" t="str">
+        <f t="shared" ref="B195" si="23">"costume"&amp;A195</f>
+        <v>costume193</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" s="1">
+        <v>8</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ref="G195" si="24">A195</f>
+        <v>193</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="B196" s="1" t="str">
+        <f t="shared" ref="B196" si="25">"costume"&amp;A196</f>
+        <v>costume194</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" s="1">
+        <v>8</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G196">
+        <f t="shared" ref="G196" si="26">A196</f>
+        <v>194</v>
+      </c>
+      <c r="H196">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PYJ\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6146EF-82A2-4CA6-B1F4-E516DB4844A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFF0F91-4E49-44DE-BD2A-870498CAB161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="445">
   <si>
     <t>id</t>
   </si>
@@ -1643,6 +1643,30 @@
   </si>
   <si>
     <t>음양사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설날 한정 상품에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경국지색 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑태자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천세상제 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백의대군 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2027,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O170" sqref="O170"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6215,7 +6239,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A196" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A200" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -7234,7 +7258,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="1" t="str">
-        <f t="shared" ref="B196" si="25">"costume"&amp;A196</f>
+        <f t="shared" ref="B196:B199" si="25">"costume"&amp;A196</f>
         <v>costume194</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -7250,10 +7274,126 @@
         <v>65</v>
       </c>
       <c r="G196">
-        <f t="shared" ref="G196" si="26">A196</f>
+        <f t="shared" ref="G196:G199" si="26">A196</f>
         <v>194</v>
       </c>
       <c r="H196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="B197" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>costume195</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" s="1">
+        <v>8</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="26"/>
+        <v>195</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="B198" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>costume196</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="1">
+        <v>8</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="26"/>
+        <v>196</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="B199" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>costume197</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" s="1">
+        <v>8</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="26"/>
+        <v>197</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="B200" s="1" t="str">
+        <f t="shared" ref="B200" si="27">"costume"&amp;A200</f>
+        <v>costume198</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E200" s="1">
+        <v>8</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G200">
+        <f t="shared" ref="G200" si="28">A200</f>
+        <v>198</v>
+      </c>
+      <c r="H200">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PYJ\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFF0F91-4E49-44DE-BD2A-870498CAB161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE3FC8F-BF96-423C-A84C-8D4087A70C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="451">
   <si>
     <t>id</t>
   </si>
@@ -1667,6 +1667,30 @@
   </si>
   <si>
     <t>백의대군 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2024/3월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방랑자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천세왕후 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남궁가주 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제갈가주 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2051,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C196" sqref="C196"/>
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6239,7 +6263,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A200" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A204" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -7374,7 +7398,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="1" t="str">
-        <f t="shared" ref="B200" si="27">"costume"&amp;A200</f>
+        <f t="shared" ref="B200:B203" si="27">"costume"&amp;A200</f>
         <v>costume198</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -7390,10 +7414,126 @@
         <v>440</v>
       </c>
       <c r="G200">
-        <f t="shared" ref="G200" si="28">A200</f>
+        <f t="shared" ref="G200:G203" si="28">A200</f>
         <v>198</v>
       </c>
       <c r="H200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
+      <c r="B201" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>costume199</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="1">
+        <v>8</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="28"/>
+        <v>199</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="B202" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>costume200</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E202" s="1">
+        <v>8</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="28"/>
+        <v>200</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="B203" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>costume201</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203" s="1">
+        <v>8</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="28"/>
+        <v>201</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="B204" s="1" t="str">
+        <f t="shared" ref="B204" si="29">"costume"&amp;A204</f>
+        <v>costume202</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204" s="1">
+        <v>8</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G204">
+        <f t="shared" ref="G204" si="30">A204</f>
+        <v>202</v>
+      </c>
+      <c r="H204">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE3FC8F-BF96-423C-A84C-8D4087A70C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3BAAD7-508F-44D2-A9F6-49F5DFD202DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="456">
   <si>
     <t>id</t>
   </si>
@@ -1691,6 +1691,26 @@
   </si>
   <si>
     <t>제갈가주 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄바람 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온화천왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사천당문 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모용가주 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청화 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2075,10 +2095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6263,7 +6283,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A204" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A208" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -7514,7 +7534,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="1" t="str">
-        <f t="shared" ref="B204" si="29">"costume"&amp;A204</f>
+        <f t="shared" ref="B204:B205" si="29">"costume"&amp;A204</f>
         <v>costume202</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -7530,10 +7550,126 @@
         <v>445</v>
       </c>
       <c r="G204">
-        <f t="shared" ref="G204" si="30">A204</f>
+        <f t="shared" ref="G204:G205" si="30">A204</f>
         <v>202</v>
       </c>
       <c r="H204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="B205" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>costume203</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E205" s="1">
+        <v>8</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="30"/>
+        <v>203</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="B206" s="1" t="str">
+        <f t="shared" ref="B206:B208" si="31">"costume"&amp;A206</f>
+        <v>costume204</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206" s="1">
+        <v>8</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G206">
+        <f t="shared" ref="G206:G208" si="32">A206</f>
+        <v>204</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="B207" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>costume205</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E207" s="1">
+        <v>8</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="32"/>
+        <v>205</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="B208" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>costume206</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E208" s="1">
+        <v>8</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="32"/>
+        <v>206</v>
+      </c>
+      <c r="H208">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3BAAD7-508F-44D2-A9F6-49F5DFD202DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A23BBF-D72B-43E4-9F01-BF8B25670D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="461">
   <si>
     <t>id</t>
   </si>
@@ -1711,6 +1711,26 @@
   </si>
   <si>
     <t>청화 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚꽃 핫타임 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명상제 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소림나한 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북해빙궁 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄여우 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1799,9 +1819,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1839,7 +1859,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1945,7 +1965,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2087,7 +2107,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2095,9 +2115,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
@@ -6283,7 +6303,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A208" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A212" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -6365,7 +6385,7 @@
         <v>161</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -6539,7 +6559,7 @@
         <v>167</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -7592,7 +7612,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="1" t="str">
-        <f t="shared" ref="B206:B208" si="31">"costume"&amp;A206</f>
+        <f t="shared" ref="B206:B209" si="31">"costume"&amp;A206</f>
         <v>costume204</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -7608,7 +7628,7 @@
         <v>446</v>
       </c>
       <c r="G206">
-        <f t="shared" ref="G206:G208" si="32">A206</f>
+        <f t="shared" ref="G206:G209" si="32">A206</f>
         <v>204</v>
       </c>
       <c r="H206">
@@ -7670,6 +7690,122 @@
         <v>206</v>
       </c>
       <c r="H208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="B209" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>costume207</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209" s="1">
+        <v>8</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="32"/>
+        <v>207</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="B210" s="1" t="str">
+        <f t="shared" ref="B210:B212" si="33">"costume"&amp;A210</f>
+        <v>costume208</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E210" s="1">
+        <v>8</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G210">
+        <f t="shared" ref="G210:G212" si="34">A210</f>
+        <v>208</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <f t="shared" si="1"/>
+        <v>209</v>
+      </c>
+      <c r="B211" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>costume209</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211" s="1">
+        <v>8</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="34"/>
+        <v>209</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="B212" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>costume210</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E212" s="1">
+        <v>8</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="34"/>
+        <v>210</v>
+      </c>
+      <c r="H212">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A23BBF-D72B-43E4-9F01-BF8B25670D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6D2FBD-BF4E-44AE-8860-3C2707B0BAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="468">
   <si>
     <t>id</t>
   </si>
@@ -1731,6 +1731,34 @@
   </si>
   <si>
     <t>봄여우 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종남가주 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2024/4월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수월경화 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하북팽가 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락천왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무녀 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별 임무에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2115,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H212"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6303,7 +6331,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A212" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A217" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -7728,7 +7756,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="str">
-        <f t="shared" ref="B210:B212" si="33">"costume"&amp;A210</f>
+        <f t="shared" ref="B210:B213" si="33">"costume"&amp;A210</f>
         <v>costume208</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -7744,7 +7772,7 @@
         <v>446</v>
       </c>
       <c r="G210">
-        <f t="shared" ref="G210:G212" si="34">A210</f>
+        <f t="shared" ref="G210:G213" si="34">A210</f>
         <v>208</v>
       </c>
       <c r="H210">
@@ -7806,6 +7834,151 @@
         <v>210</v>
       </c>
       <c r="H212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="B213" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>costume211</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E213" s="1">
+        <v>8</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="34"/>
+        <v>211</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="B214" s="1" t="str">
+        <f t="shared" ref="B214:B216" si="35">"costume"&amp;A214</f>
+        <v>costume212</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" s="1">
+        <v>8</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G214">
+        <f t="shared" ref="G214:G216" si="36">A214</f>
+        <v>212</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <f t="shared" si="1"/>
+        <v>213</v>
+      </c>
+      <c r="B215" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>costume213</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215" s="1">
+        <v>8</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="36"/>
+        <v>213</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
+      <c r="B216" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>costume214</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216" s="1">
+        <v>8</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="36"/>
+        <v>214</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="B217" s="1" t="str">
+        <f t="shared" ref="B217" si="37">"costume"&amp;A217</f>
+        <v>costume215</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E217" s="1">
+        <v>8</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G217">
+        <f t="shared" ref="G217" si="38">A217</f>
+        <v>215</v>
+      </c>
+      <c r="H217">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6D2FBD-BF4E-44AE-8860-3C2707B0BAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AB3167-76A3-4F8B-BA04-82AB626A050B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="473">
   <si>
     <t>id</t>
   </si>
@@ -1759,6 +1759,26 @@
   </si>
   <si>
     <t>특별 임무에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄소풍 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무당가주 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설산가주 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄소풍 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용태자 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2143,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F210" sqref="F210"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6331,7 +6351,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A217" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A221" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -7959,7 +7979,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="1" t="str">
-        <f t="shared" ref="B217" si="37">"costume"&amp;A217</f>
+        <f t="shared" ref="B217:B220" si="37">"costume"&amp;A217</f>
         <v>costume215</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -7975,10 +7995,126 @@
         <v>467</v>
       </c>
       <c r="G217">
-        <f t="shared" ref="G217" si="38">A217</f>
+        <f t="shared" ref="G217:G220" si="38">A217</f>
         <v>215</v>
       </c>
       <c r="H217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="B218" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>costume216</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218" s="1">
+        <v>8</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="38"/>
+        <v>216</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
+      <c r="B219" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>costume217</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E219" s="1">
+        <v>8</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="38"/>
+        <v>217</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="B220" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>costume218</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" s="1">
+        <v>8</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="38"/>
+        <v>218</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+      <c r="B221" s="1" t="str">
+        <f t="shared" ref="B221" si="39">"costume"&amp;A221</f>
+        <v>costume219</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221" s="1">
+        <v>8</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G221">
+        <f t="shared" ref="G221" si="40">A221</f>
+        <v>219</v>
+      </c>
+      <c r="H221">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AB3167-76A3-4F8B-BA04-82AB626A050B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D102F15D-2CDB-4AA1-8725-DA15C19353E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="480">
   <si>
     <t>id</t>
   </si>
@@ -1779,6 +1779,34 @@
   </si>
   <si>
     <t>용태자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적월살수 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈마 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2024/5월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음양사 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명월도령 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥 문지기 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2163,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E220" sqref="E220"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6351,7 +6379,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A221" si="1">ROW()-2</f>
+        <f t="shared" ref="A161:A224" si="1">ROW()-2</f>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="str">
@@ -7999,7 +8027,7 @@
         <v>215</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -8095,7 +8123,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="1" t="str">
-        <f t="shared" ref="B221" si="39">"costume"&amp;A221</f>
+        <f t="shared" ref="B221:B222" si="39">"costume"&amp;A221</f>
         <v>costume219</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -8111,10 +8139,155 @@
         <v>467</v>
       </c>
       <c r="G221">
-        <f t="shared" ref="G221" si="40">A221</f>
+        <f t="shared" ref="G221:G222" si="40">A221</f>
         <v>219</v>
       </c>
       <c r="H221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="B222" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>costume220</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E222" s="1">
+        <v>8</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="40"/>
+        <v>220</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="B223" s="1" t="str">
+        <f t="shared" ref="B223:B226" si="41">"costume"&amp;A223</f>
+        <v>costume221</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" s="1">
+        <v>8</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G223">
+        <f t="shared" ref="G223:G226" si="42">A223</f>
+        <v>221</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="B224" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>costume222</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224" s="1">
+        <v>8</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="42"/>
+        <v>222</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <f t="shared" ref="A225:A226" si="43">ROW()-2</f>
+        <v>223</v>
+      </c>
+      <c r="B225" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>costume223</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225" s="1">
+        <v>8</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="42"/>
+        <v>223</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <f t="shared" si="43"/>
+        <v>224</v>
+      </c>
+      <c r="B226" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>costume224</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226" s="1">
+        <v>8</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="42"/>
+        <v>224</v>
+      </c>
+      <c r="H226">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D102F15D-2CDB-4AA1-8725-DA15C19353E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B96B01-5C11-4B10-AAE5-AC88CED41C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="488">
   <si>
     <t>id</t>
   </si>
@@ -1807,6 +1807,38 @@
   </si>
   <si>
     <t>지옥도에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진광대왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오조사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백묘 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑묘 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이날 한정 상품에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이날 핫타임 이벤트 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적풍검객 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청풍검객 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2191,10 +2223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E222" sqref="E222"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8101,7 +8133,7 @@
         <v>471</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E220" s="1">
         <v>8</v>
@@ -8235,7 +8267,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" ref="A225:A226" si="43">ROW()-2</f>
+        <f t="shared" ref="A225:A232" si="43">ROW()-2</f>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="str">
@@ -8288,6 +8320,180 @@
         <v>224</v>
       </c>
       <c r="H226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <f t="shared" si="43"/>
+        <v>225</v>
+      </c>
+      <c r="B227" s="1" t="str">
+        <f t="shared" ref="B227" si="44">"costume"&amp;A227</f>
+        <v>costume225</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" s="1">
+        <v>8</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G227">
+        <f t="shared" ref="G227" si="45">A227</f>
+        <v>225</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <f t="shared" si="43"/>
+        <v>226</v>
+      </c>
+      <c r="B228" s="1" t="str">
+        <f>"costume"&amp;A228</f>
+        <v>costume226</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E228" s="1">
+        <v>8</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G228">
+        <f>A228</f>
+        <v>226</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <f t="shared" si="43"/>
+        <v>227</v>
+      </c>
+      <c r="B229" s="1" t="str">
+        <f>"costume"&amp;A229</f>
+        <v>costume227</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229" s="1">
+        <v>8</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G229">
+        <f>A229</f>
+        <v>227</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <f t="shared" si="43"/>
+        <v>228</v>
+      </c>
+      <c r="B230" s="1" t="str">
+        <f>"costume"&amp;A230</f>
+        <v>costume228</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230" s="1">
+        <v>8</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G230">
+        <f>A230</f>
+        <v>228</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <f t="shared" si="43"/>
+        <v>229</v>
+      </c>
+      <c r="B231" s="1" t="str">
+        <f>"costume"&amp;A231</f>
+        <v>costume229</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" s="1">
+        <v>8</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G231">
+        <f>A231</f>
+        <v>229</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <f t="shared" si="43"/>
+        <v>230</v>
+      </c>
+      <c r="B232" s="1" t="str">
+        <f>"costume"&amp;A232</f>
+        <v>costume230</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" s="1">
+        <v>8</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G232">
+        <f>A232</f>
+        <v>230</v>
+      </c>
+      <c r="H232">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B96B01-5C11-4B10-AAE5-AC88CED41C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D464AA9-FCDC-479F-8462-4804057BF6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="494">
   <si>
     <t>id</t>
   </si>
@@ -1839,6 +1839,30 @@
   </si>
   <si>
     <t>청풍검객 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태산대왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름대비 훈련에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우비 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적사신 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청사신 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영술사 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2223,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H232"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C229" sqref="C229"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8267,7 +8291,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" ref="A225:A232" si="43">ROW()-2</f>
+        <f t="shared" ref="A225:A237" si="43">ROW()-2</f>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="str">
@@ -8358,7 +8382,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="1" t="str">
-        <f>"costume"&amp;A228</f>
+        <f t="shared" ref="B228:B237" si="46">"costume"&amp;A228</f>
         <v>costume226</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -8374,7 +8398,7 @@
         <v>446</v>
       </c>
       <c r="G228">
-        <f>A228</f>
+        <f t="shared" ref="G228:G237" si="47">A228</f>
         <v>226</v>
       </c>
       <c r="H228">
@@ -8387,7 +8411,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="1" t="str">
-        <f>"costume"&amp;A229</f>
+        <f t="shared" si="46"/>
         <v>costume227</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -8403,7 +8427,7 @@
         <v>446</v>
       </c>
       <c r="G229">
-        <f>A229</f>
+        <f t="shared" si="47"/>
         <v>227</v>
       </c>
       <c r="H229">
@@ -8416,7 +8440,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="1" t="str">
-        <f>"costume"&amp;A230</f>
+        <f t="shared" si="46"/>
         <v>costume228</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -8432,7 +8456,7 @@
         <v>467</v>
       </c>
       <c r="G230">
-        <f>A230</f>
+        <f t="shared" si="47"/>
         <v>228</v>
       </c>
       <c r="H230">
@@ -8445,7 +8469,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="1" t="str">
-        <f>"costume"&amp;A231</f>
+        <f t="shared" si="46"/>
         <v>costume229</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -8461,7 +8485,7 @@
         <v>485</v>
       </c>
       <c r="G231">
-        <f>A231</f>
+        <f t="shared" si="47"/>
         <v>229</v>
       </c>
       <c r="H231">
@@ -8474,7 +8498,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="1" t="str">
-        <f>"costume"&amp;A232</f>
+        <f t="shared" si="46"/>
         <v>costume230</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -8490,10 +8514,155 @@
         <v>484</v>
       </c>
       <c r="G232">
-        <f>A232</f>
+        <f t="shared" si="47"/>
         <v>230</v>
       </c>
       <c r="H232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <f t="shared" si="43"/>
+        <v>231</v>
+      </c>
+      <c r="B233" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>costume231</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E233" s="1">
+        <v>8</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="47"/>
+        <v>231</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <f t="shared" si="43"/>
+        <v>232</v>
+      </c>
+      <c r="B234" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>costume232</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E234" s="1">
+        <v>8</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="47"/>
+        <v>232</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <f t="shared" si="43"/>
+        <v>233</v>
+      </c>
+      <c r="B235" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>costume233</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E235" s="1">
+        <v>8</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="47"/>
+        <v>233</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <f t="shared" si="43"/>
+        <v>234</v>
+      </c>
+      <c r="B236" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>costume234</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E236" s="1">
+        <v>8</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="47"/>
+        <v>234</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <f t="shared" si="43"/>
+        <v>235</v>
+      </c>
+      <c r="B237" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>costume235</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" s="1">
+        <v>8</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="47"/>
+        <v>235</v>
+      </c>
+      <c r="H237">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D464AA9-FCDC-479F-8462-4804057BF6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB1C912-9196-43AD-876A-459411BD6DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="502">
   <si>
     <t>id</t>
   </si>
@@ -1863,6 +1863,38 @@
   </si>
   <si>
     <t>영술사 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초광대왕 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2024/6월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 캠핑 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 캠핑 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선화 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청령화 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청사화 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백사화 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2247,10 +2279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8291,7 +8323,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" ref="A225:A237" si="43">ROW()-2</f>
+        <f t="shared" ref="A225:A243" si="43">ROW()-2</f>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="str">
@@ -8663,6 +8695,180 @@
         <v>235</v>
       </c>
       <c r="H237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <f t="shared" si="43"/>
+        <v>236</v>
+      </c>
+      <c r="B238" s="1" t="str">
+        <f t="shared" ref="B238:B243" si="48">"costume"&amp;A238</f>
+        <v>costume236</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E238" s="1">
+        <v>8</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G238">
+        <f t="shared" ref="G238:G243" si="49">A238</f>
+        <v>236</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <f t="shared" si="43"/>
+        <v>237</v>
+      </c>
+      <c r="B239" s="1" t="str">
+        <f t="shared" si="48"/>
+        <v>costume237</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239" s="1">
+        <v>8</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="49"/>
+        <v>237</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <f t="shared" si="43"/>
+        <v>238</v>
+      </c>
+      <c r="B240" s="1" t="str">
+        <f t="shared" si="48"/>
+        <v>costume238</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E240" s="1">
+        <v>8</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="49"/>
+        <v>238</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <f t="shared" si="43"/>
+        <v>239</v>
+      </c>
+      <c r="B241" s="1" t="str">
+        <f t="shared" si="48"/>
+        <v>costume239</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241" s="1">
+        <v>8</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="49"/>
+        <v>239</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <f t="shared" si="43"/>
+        <v>240</v>
+      </c>
+      <c r="B242" s="1" t="str">
+        <f t="shared" si="48"/>
+        <v>costume240</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E242" s="1">
+        <v>8</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="49"/>
+        <v>240</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <f t="shared" si="43"/>
+        <v>241</v>
+      </c>
+      <c r="B243" s="1" t="str">
+        <f t="shared" si="48"/>
+        <v>costume241</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E243" s="1">
+        <v>8</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="49"/>
+        <v>241</v>
+      </c>
+      <c r="H243">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB1C912-9196-43AD-876A-459411BD6DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355076D1-3B90-41D9-AEC7-47489AC22B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="508">
   <si>
     <t>id</t>
   </si>
@@ -1895,6 +1895,30 @@
   </si>
   <si>
     <t>백사화 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 핫타임 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전륜대왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호접 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀술사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자열술사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적열술사 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2279,10 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H243"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C244" sqref="C244:C248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8323,7 +8347,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" ref="A225:A243" si="43">ROW()-2</f>
+        <f t="shared" ref="A225:A248" si="43">ROW()-2</f>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="str">
@@ -8869,6 +8893,151 @@
         <v>241</v>
       </c>
       <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <f t="shared" si="43"/>
+        <v>242</v>
+      </c>
+      <c r="B244" s="1" t="str">
+        <f t="shared" ref="B244:B248" si="50">"costume"&amp;A244</f>
+        <v>costume242</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244" s="1">
+        <v>8</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G244">
+        <f t="shared" ref="G244:G248" si="51">A244</f>
+        <v>242</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <f t="shared" si="43"/>
+        <v>243</v>
+      </c>
+      <c r="B245" s="1" t="str">
+        <f t="shared" si="50"/>
+        <v>costume243</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" s="1">
+        <v>8</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="51"/>
+        <v>243</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <f t="shared" si="43"/>
+        <v>244</v>
+      </c>
+      <c r="B246" s="1" t="str">
+        <f t="shared" si="50"/>
+        <v>costume244</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" s="1">
+        <v>8</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="51"/>
+        <v>244</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <f t="shared" si="43"/>
+        <v>245</v>
+      </c>
+      <c r="B247" s="1" t="str">
+        <f t="shared" si="50"/>
+        <v>costume245</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E247" s="1">
+        <v>8</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="51"/>
+        <v>245</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <f t="shared" si="43"/>
+        <v>246</v>
+      </c>
+      <c r="B248" s="1" t="str">
+        <f t="shared" si="50"/>
+        <v>costume246</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E248" s="1">
+        <v>8</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="51"/>
+        <v>246</v>
+      </c>
+      <c r="H248">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355076D1-3B90-41D9-AEC7-47489AC22B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138DDEAC-E9FC-44FA-9E8F-8B9602048F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="516">
   <si>
     <t>id</t>
   </si>
@@ -1919,6 +1919,38 @@
   </si>
   <si>
     <t>적열술사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2024/7월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상도에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주년 전야제 패키지에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 햇살 훈련 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미호 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식신술사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름햇살 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백련화신 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2303,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H248"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C244" sqref="C244:C248"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8347,7 +8379,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" ref="A225:A248" si="43">ROW()-2</f>
+        <f t="shared" ref="A225:A252" si="43">ROW()-2</f>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="str">
@@ -9038,6 +9070,122 @@
         <v>246</v>
       </c>
       <c r="H248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <f t="shared" si="43"/>
+        <v>247</v>
+      </c>
+      <c r="B249" s="1" t="str">
+        <f t="shared" ref="B249:B252" si="52">"costume"&amp;A249</f>
+        <v>costume247</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" s="1">
+        <v>8</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G249">
+        <f t="shared" ref="G249:G252" si="53">A249</f>
+        <v>247</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <f t="shared" si="43"/>
+        <v>248</v>
+      </c>
+      <c r="B250" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>costume248</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E250" s="1">
+        <v>8</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="53"/>
+        <v>248</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <f t="shared" si="43"/>
+        <v>249</v>
+      </c>
+      <c r="B251" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>costume249</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E251" s="1">
+        <v>8</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="53"/>
+        <v>249</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <f t="shared" si="43"/>
+        <v>250</v>
+      </c>
+      <c r="B252" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>costume250</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E252" s="1">
+        <v>8</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G252">
+        <f t="shared" si="53"/>
+        <v>250</v>
+      </c>
+      <c r="H252">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138DDEAC-E9FC-44FA-9E8F-8B9602048F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46E5F02-3D33-41E8-85BB-2C3C7D931796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="522">
   <si>
     <t>id</t>
   </si>
@@ -1951,6 +1951,30 @@
   </si>
   <si>
     <t>백련화신 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래성 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹 순위를 통해 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑오화신 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑룡여제 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑룡화신 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡여제 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2335,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E238" sqref="E238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8379,7 +8403,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" ref="A225:A252" si="43">ROW()-2</f>
+        <f t="shared" ref="A225:A256" si="43">ROW()-2</f>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="str">
@@ -9186,6 +9210,122 @@
         <v>250</v>
       </c>
       <c r="H252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <f t="shared" si="43"/>
+        <v>251</v>
+      </c>
+      <c r="B253" s="1" t="str">
+        <f t="shared" ref="B253:B256" si="54">"costume"&amp;A253</f>
+        <v>costume251</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E253" s="1">
+        <v>8</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G253">
+        <f t="shared" ref="G253:G256" si="55">A253</f>
+        <v>251</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <f t="shared" si="43"/>
+        <v>252</v>
+      </c>
+      <c r="B254" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>costume252</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E254" s="1">
+        <v>8</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G254">
+        <f t="shared" si="55"/>
+        <v>252</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <f t="shared" si="43"/>
+        <v>253</v>
+      </c>
+      <c r="B255" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>costume253</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E255" s="1">
+        <v>8</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G255">
+        <f t="shared" si="55"/>
+        <v>253</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <f t="shared" si="43"/>
+        <v>254</v>
+      </c>
+      <c r="B256" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>costume254</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E256" s="1">
+        <v>8</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G256">
+        <f t="shared" si="55"/>
+        <v>254</v>
+      </c>
+      <c r="H256">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46E5F02-3D33-41E8-85BB-2C3C7D931796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2644DC-33E0-450F-B7E0-2638404D94C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="528">
   <si>
     <t>id</t>
   </si>
@@ -1975,6 +1975,30 @@
   </si>
   <si>
     <t>적룡여제 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자령화신 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청월화신 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2024/8월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 패스에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분홍나비 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑청나비 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2359,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E238" sqref="E238"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8403,7 +8427,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" ref="A225:A256" si="43">ROW()-2</f>
+        <f t="shared" ref="A225:A260" si="43">ROW()-2</f>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="str">
@@ -9326,6 +9350,122 @@
         <v>254</v>
       </c>
       <c r="H256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <f t="shared" si="43"/>
+        <v>255</v>
+      </c>
+      <c r="B257" s="1" t="str">
+        <f t="shared" ref="B257:B260" si="56">"costume"&amp;A257</f>
+        <v>costume255</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E257" s="1">
+        <v>8</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G257">
+        <f t="shared" ref="G257:G260" si="57">A257</f>
+        <v>255</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <f t="shared" si="43"/>
+        <v>256</v>
+      </c>
+      <c r="B258" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>costume256</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E258" s="1">
+        <v>8</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G258">
+        <f t="shared" si="57"/>
+        <v>256</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <f t="shared" si="43"/>
+        <v>257</v>
+      </c>
+      <c r="B259" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>costume257</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E259" s="1">
+        <v>8</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G259">
+        <f t="shared" si="57"/>
+        <v>257</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <f t="shared" si="43"/>
+        <v>258</v>
+      </c>
+      <c r="B260" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>costume258</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E260" s="1">
+        <v>8</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G260">
+        <f t="shared" si="57"/>
+        <v>258</v>
+      </c>
+      <c r="H260">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2644DC-33E0-450F-B7E0-2638404D94C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E12DF1-35C2-4044-8AD3-AE1FCD7ADF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="529">
   <si>
     <t>id</t>
   </si>
@@ -1999,6 +1999,10 @@
   </si>
   <si>
     <t>흑청나비 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백열화신 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2383,10 +2387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C259" sqref="C259"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G261" sqref="G261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8427,7 +8431,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" ref="A225:A260" si="43">ROW()-2</f>
+        <f t="shared" ref="A225:A261" si="43">ROW()-2</f>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="str">
@@ -9466,6 +9470,35 @@
         <v>258</v>
       </c>
       <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <f t="shared" si="43"/>
+        <v>259</v>
+      </c>
+      <c r="B261" s="1" t="str">
+        <f t="shared" ref="B261" si="58">"costume"&amp;A261</f>
+        <v>costume259</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" s="1">
+        <v>8</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G261">
+        <f t="shared" ref="G261" si="59">A261</f>
+        <v>259</v>
+      </c>
+      <c r="H261">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E12DF1-35C2-4044-8AD3-AE1FCD7ADF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4141A197-2D00-405C-B4D4-2F045D5BC0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="531">
   <si>
     <t>id</t>
   </si>
@@ -2003,6 +2003,14 @@
   </si>
   <si>
     <t>백열화신 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2024/9월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백의선생 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2387,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G261" sqref="G261"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8431,7 +8439,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" ref="A225:A261" si="43">ROW()-2</f>
+        <f t="shared" ref="A225:A262" si="43">ROW()-2</f>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="str">
@@ -9499,6 +9507,35 @@
         <v>259</v>
       </c>
       <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <f t="shared" si="43"/>
+        <v>260</v>
+      </c>
+      <c r="B262" s="1" t="str">
+        <f t="shared" ref="B262" si="60">"costume"&amp;A262</f>
+        <v>costume260</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262" s="1">
+        <v>8</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G262">
+        <f t="shared" ref="G262" si="61">A262</f>
+        <v>260</v>
+      </c>
+      <c r="H262">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4141A197-2D00-405C-B4D4-2F045D5BC0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06F87D5-3BCD-4498-BF90-C8CBD7A692E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="534">
   <si>
     <t>id</t>
   </si>
@@ -2011,6 +2011,18 @@
   </si>
   <si>
     <t>백의선생 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2024/10월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑열화신 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑련화신 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2395,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E260" sqref="E260"/>
+      <selection activeCell="C262" activeCellId="1" sqref="F262 C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8439,7 +8451,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" ref="A225:A262" si="43">ROW()-2</f>
+        <f t="shared" ref="A225:A264" si="43">ROW()-2</f>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="str">
@@ -9516,7 +9528,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="1" t="str">
-        <f t="shared" ref="B262" si="60">"costume"&amp;A262</f>
+        <f t="shared" ref="B262:B263" si="60">"costume"&amp;A262</f>
         <v>costume260</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -9532,10 +9544,68 @@
         <v>529</v>
       </c>
       <c r="G262">
-        <f t="shared" ref="G262" si="61">A262</f>
+        <f t="shared" ref="G262:G263" si="61">A262</f>
         <v>260</v>
       </c>
       <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <f t="shared" si="43"/>
+        <v>261</v>
+      </c>
+      <c r="B263" s="1" t="str">
+        <f t="shared" si="60"/>
+        <v>costume261</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E263" s="1">
+        <v>8</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G263">
+        <f t="shared" si="61"/>
+        <v>261</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <f t="shared" si="43"/>
+        <v>262</v>
+      </c>
+      <c r="B264" s="1" t="str">
+        <f t="shared" ref="B264" si="62">"costume"&amp;A264</f>
+        <v>costume262</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264" s="1">
+        <v>8</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G264">
+        <f t="shared" ref="G264" si="63">A264</f>
+        <v>262</v>
+      </c>
+      <c r="H264">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06F87D5-3BCD-4498-BF90-C8CBD7A692E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D4A4EE-4FBB-4A25-8DEB-9F9E4BBAC25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="536">
   <si>
     <t>id</t>
   </si>
@@ -2023,6 +2023,14 @@
   </si>
   <si>
     <t>흑련화신 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2024/11월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여제 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2407,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C262" activeCellId="1" sqref="F262 C262"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8451,7 +8459,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" ref="A225:A264" si="43">ROW()-2</f>
+        <f t="shared" ref="A225:A265" si="43">ROW()-2</f>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="str">
@@ -9606,6 +9614,35 @@
         <v>262</v>
       </c>
       <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <f t="shared" si="43"/>
+        <v>263</v>
+      </c>
+      <c r="B265" s="1" t="str">
+        <f t="shared" ref="B265" si="64">"costume"&amp;A265</f>
+        <v>costume263</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E265" s="1">
+        <v>8</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G265">
+        <f t="shared" ref="G265" si="65">A265</f>
+        <v>263</v>
+      </c>
+      <c r="H265">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D4A4EE-4FBB-4A25-8DEB-9F9E4BBAC25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E2668E-A8E4-420F-A3BD-A1CC17356476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="538">
   <si>
     <t>id</t>
   </si>
@@ -2031,6 +2031,14 @@
   </si>
   <si>
     <t>여제 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2024/12월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀령 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2415,7 +2423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C265" sqref="C265"/>
@@ -8459,7 +8467,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" ref="A225:A265" si="43">ROW()-2</f>
+        <f t="shared" ref="A225:A266" si="43">ROW()-2</f>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="str">
@@ -9643,6 +9651,35 @@
         <v>263</v>
       </c>
       <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <f t="shared" si="43"/>
+        <v>264</v>
+      </c>
+      <c r="B266" s="1" t="str">
+        <f t="shared" ref="B266" si="66">"costume"&amp;A266</f>
+        <v>costume264</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E266" s="1">
+        <v>8</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G266">
+        <f t="shared" ref="G266" si="67">A266</f>
+        <v>264</v>
+      </c>
+      <c r="H266">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E2668E-A8E4-420F-A3BD-A1CC17356476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24F7880-BD62-4124-B94C-E7E17CB0EC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="540">
   <si>
     <t>id</t>
   </si>
@@ -2039,6 +2039,14 @@
   </si>
   <si>
     <t>귀령 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2025/01월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독안마신 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2423,10 +2431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H266"/>
+  <dimension ref="A1:H267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C265" sqref="C265"/>
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8467,7 +8475,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" ref="A225:A266" si="43">ROW()-2</f>
+        <f t="shared" ref="A225:A267" si="43">ROW()-2</f>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="str">
@@ -9680,6 +9688,35 @@
         <v>264</v>
       </c>
       <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <f t="shared" si="43"/>
+        <v>265</v>
+      </c>
+      <c r="B267" s="1" t="str">
+        <f t="shared" ref="B267" si="68">"costume"&amp;A267</f>
+        <v>costume265</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E267" s="1">
+        <v>8</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G267">
+        <f t="shared" ref="G267" si="69">A267</f>
+        <v>265</v>
+      </c>
+      <c r="H267">
         <v>0</v>
       </c>
     </row>
